--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11271.22063709847</v>
+        <v>2242972.906782596</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11271.22063709847</v>
+        <v>2242972.906782596</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45766.01400804468</v>
+        <v>3077454.434316007</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45766.01400804468</v>
+        <v>3077454.434316007</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495218446.45476</v>
+        <v>58488402.58236746</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13574.1274394008</v>
+        <v>1354792.251190807</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26408.1523156184</v>
+        <v>2582684.865515086</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39242.17719183597</v>
+        <v>3810577.479839367</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54122.70709554751</v>
+        <v>4890655.772404949</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68331.88547449216</v>
+        <v>6043693.746822285</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82541.06385343638</v>
+        <v>7196731.72123965</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>97016.01713233726</v>
+        <v>8358772.113544906</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>111445.7321303944</v>
+        <v>9511810.08796227</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>125591.3162318742</v>
+        <v>10625041.23764282</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>139599.875475269</v>
+        <v>11778782.49059532</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>153608.4347186637</v>
+        <v>12932523.74354783</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>167616.994729336</v>
+        <v>14086264.99650034</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>181625.5539727307</v>
+        <v>15240006.24945286</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>195688.5263393409</v>
+        <v>16388409.67275432</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>210914.8713652213</v>
+        <v>17328439.91568082</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>169.0000000000624</v>
@@ -27052,13 +27052,13 @@
         <v>47.00000000018328</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>153.9999999998175</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>143</v>
